--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3250705</v>
+        <v>23.732591</v>
       </c>
       <c r="H2">
-        <v>30.650141</v>
+        <v>47.465182</v>
       </c>
       <c r="I2">
-        <v>0.5468844173754854</v>
+        <v>0.9251238506064837</v>
       </c>
       <c r="J2">
-        <v>0.4467829378564527</v>
+        <v>0.8979909126657287</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.269746</v>
+        <v>90.353905</v>
       </c>
       <c r="N2">
-        <v>66.539492</v>
+        <v>180.70781</v>
       </c>
       <c r="O2">
-        <v>0.2005681987123831</v>
+        <v>0.3131638580342592</v>
       </c>
       <c r="P2">
-        <v>0.1699655288935572</v>
+        <v>0.2965570309229201</v>
       </c>
       <c r="Q2">
-        <v>509.8612029670929</v>
+        <v>2144.332272617855</v>
       </c>
       <c r="R2">
-        <v>2039.444811868372</v>
+        <v>8577.329090471419</v>
       </c>
       <c r="S2">
-        <v>0.1096876224968722</v>
+        <v>0.289715354215436</v>
       </c>
       <c r="T2">
-        <v>0.07593769833338927</v>
+        <v>0.2663055188559117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.3250705</v>
+        <v>23.732591</v>
       </c>
       <c r="H3">
-        <v>30.650141</v>
+        <v>47.465182</v>
       </c>
       <c r="I3">
-        <v>0.5468844173754854</v>
+        <v>0.9251238506064837</v>
       </c>
       <c r="J3">
-        <v>0.4467829378564527</v>
+        <v>0.8979909126657287</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>1.078206</v>
       </c>
       <c r="O3">
-        <v>0.002166671538569243</v>
+        <v>0.001245676287098259</v>
       </c>
       <c r="P3">
-        <v>0.002754121613164806</v>
+        <v>0.001769428615638018</v>
       </c>
       <c r="Q3">
-        <v>5.507860987840999</v>
+        <v>8.529540670582</v>
       </c>
       <c r="R3">
-        <v>33.047165927046</v>
+        <v>51.177244023492</v>
       </c>
       <c r="S3">
-        <v>0.001184918902014487</v>
+        <v>0.001152404843329529</v>
       </c>
       <c r="T3">
-        <v>0.001230494545543725</v>
+        <v>0.001588930817453641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.3250705</v>
+        <v>23.732591</v>
       </c>
       <c r="H4">
-        <v>30.650141</v>
+        <v>47.465182</v>
       </c>
       <c r="I4">
-        <v>0.5468844173754854</v>
+        <v>0.9251238506064837</v>
       </c>
       <c r="J4">
-        <v>0.4467829378564527</v>
+        <v>0.8979909126657287</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.47626</v>
+        <v>10.80810533333333</v>
       </c>
       <c r="N4">
-        <v>25.42878</v>
+        <v>32.424316</v>
       </c>
       <c r="O4">
-        <v>0.05109952447541453</v>
+        <v>0.03746056093787335</v>
       </c>
       <c r="P4">
-        <v>0.06495414845995381</v>
+        <v>0.05321108635352579</v>
       </c>
       <c r="Q4">
-        <v>129.89928207633</v>
+        <v>256.5043433609187</v>
       </c>
       <c r="R4">
-        <v>779.39569245798</v>
+        <v>1539.026060165512</v>
       </c>
       <c r="S4">
-        <v>0.02794553367090144</v>
+        <v>0.03465565838072422</v>
       </c>
       <c r="T4">
-        <v>0.02902040527490235</v>
+        <v>0.04778307199853753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.3250705</v>
+        <v>23.732591</v>
       </c>
       <c r="H5">
-        <v>30.650141</v>
+        <v>47.465182</v>
       </c>
       <c r="I5">
-        <v>0.5468844173754854</v>
+        <v>0.9251238506064837</v>
       </c>
       <c r="J5">
-        <v>0.4467829378564527</v>
+        <v>0.8979909126657287</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.87451449999999</v>
+        <v>165.852196</v>
       </c>
       <c r="N5">
-        <v>145.749029</v>
+        <v>331.704392</v>
       </c>
       <c r="O5">
-        <v>0.4393273728421144</v>
+        <v>0.574838614477306</v>
       </c>
       <c r="P5">
-        <v>0.3722948591147555</v>
+        <v>0.5443553858331436</v>
       </c>
       <c r="Q5">
-        <v>1116.807072365772</v>
+        <v>3936.102334119836</v>
       </c>
       <c r="R5">
-        <v>4467.228289463088</v>
+        <v>15744.40933647934</v>
       </c>
       <c r="S5">
-        <v>0.2402612943338624</v>
+        <v>0.5317969125025414</v>
       </c>
       <c r="T5">
-        <v>0.1663349909041446</v>
+        <v>0.4888261897388095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.3250705</v>
+        <v>23.732591</v>
       </c>
       <c r="H6">
-        <v>30.650141</v>
+        <v>47.465182</v>
       </c>
       <c r="I6">
-        <v>0.5468844173754854</v>
+        <v>0.9251238506064837</v>
       </c>
       <c r="J6">
-        <v>0.4467829378564527</v>
+        <v>0.8979909126657287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.193335</v>
+        <v>5.448456</v>
       </c>
       <c r="N6">
-        <v>138.580005</v>
+        <v>16.345368</v>
       </c>
       <c r="O6">
-        <v>0.2784786512487256</v>
+        <v>0.01888418105769649</v>
       </c>
       <c r="P6">
-        <v>0.3539826219878084</v>
+        <v>0.02682415222353981</v>
       </c>
       <c r="Q6">
-        <v>707.9161155051174</v>
+        <v>129.305977829496</v>
       </c>
       <c r="R6">
-        <v>4247.496693030705</v>
+        <v>775.835866976976</v>
       </c>
       <c r="S6">
-        <v>0.1522956349396703</v>
+        <v>0.01747020629564619</v>
       </c>
       <c r="T6">
-        <v>0.1581533958018432</v>
+        <v>0.02408784493670095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.3250705</v>
+        <v>23.732591</v>
       </c>
       <c r="H7">
-        <v>30.650141</v>
+        <v>47.465182</v>
       </c>
       <c r="I7">
-        <v>0.5468844173754854</v>
+        <v>0.9251238506064837</v>
       </c>
       <c r="J7">
-        <v>0.4467829378564527</v>
+        <v>0.8979909126657287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.704215666666666</v>
+        <v>15.69751633333333</v>
       </c>
       <c r="N7">
-        <v>14.112647</v>
+        <v>47.09254900000001</v>
       </c>
       <c r="O7">
-        <v>0.0283595811827931</v>
+        <v>0.05440710920576665</v>
       </c>
       <c r="P7">
-        <v>0.03604871993076041</v>
+        <v>0.07728291605123282</v>
       </c>
       <c r="Q7">
-        <v>72.09243673887116</v>
+        <v>372.5427348548197</v>
       </c>
       <c r="R7">
-        <v>432.5546204332269</v>
+        <v>2235.256409128918</v>
       </c>
       <c r="S7">
-        <v>0.01550941303216458</v>
+        <v>0.05033331436880631</v>
       </c>
       <c r="T7">
-        <v>0.0161059529966296</v>
+        <v>0.06939935631831545</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.934058</v>
       </c>
       <c r="I8">
-        <v>0.02300601015180532</v>
+        <v>0.02513060604095405</v>
       </c>
       <c r="J8">
-        <v>0.02819250049207849</v>
+        <v>0.03659032653806013</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.269746</v>
+        <v>90.353905</v>
       </c>
       <c r="N8">
-        <v>66.539492</v>
+        <v>180.70781</v>
       </c>
       <c r="O8">
-        <v>0.2005681987123831</v>
+        <v>0.3131638580342592</v>
       </c>
       <c r="P8">
-        <v>0.1699655288935572</v>
+        <v>0.2965570309229201</v>
       </c>
       <c r="Q8">
-        <v>21.448539469756</v>
+        <v>58.24989759883</v>
       </c>
       <c r="R8">
-        <v>128.691236818536</v>
+        <v>349.4993855929799</v>
       </c>
       <c r="S8">
-        <v>0.004614274015706393</v>
+        <v>0.007869997542524229</v>
       </c>
       <c r="T8">
-        <v>0.004791753256967992</v>
+        <v>0.01085111859862724</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.934058</v>
       </c>
       <c r="I9">
-        <v>0.02300601015180532</v>
+        <v>0.02513060604095405</v>
       </c>
       <c r="J9">
-        <v>0.02819250049207849</v>
+        <v>0.03659032653806013</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>1.078206</v>
       </c>
       <c r="O9">
-        <v>0.002166671538569243</v>
+        <v>0.001245676287098259</v>
       </c>
       <c r="P9">
-        <v>0.002754121613164806</v>
+        <v>0.001769428615638018</v>
       </c>
       <c r="Q9">
         <v>0.231701437772</v>
@@ -1013,10 +1013,10 @@
         <v>2.085312939948</v>
       </c>
       <c r="S9">
-        <v>4.984646741195166E-05</v>
+        <v>3.130460002562472E-05</v>
       </c>
       <c r="T9">
-        <v>7.764557493439282E-05</v>
+        <v>6.474397083198277E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.934058</v>
       </c>
       <c r="I10">
-        <v>0.02300601015180532</v>
+        <v>0.02513060604095405</v>
       </c>
       <c r="J10">
-        <v>0.02819250049207849</v>
+        <v>0.03659032653806013</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.47626</v>
+        <v>10.80810533333333</v>
       </c>
       <c r="N10">
-        <v>25.42878</v>
+        <v>32.424316</v>
       </c>
       <c r="O10">
-        <v>0.05109952447541453</v>
+        <v>0.03746056093787335</v>
       </c>
       <c r="P10">
-        <v>0.06495414845995381</v>
+        <v>0.05321108635352579</v>
       </c>
       <c r="Q10">
-        <v>5.46452615436</v>
+        <v>6.967834194925333</v>
       </c>
       <c r="R10">
-        <v>49.18073538924</v>
+        <v>62.71050775432799</v>
       </c>
       <c r="S10">
-        <v>0.001175596178833811</v>
+        <v>0.000941406599002847</v>
       </c>
       <c r="T10">
-        <v>0.001831219862419788</v>
+        <v>0.001947011025120424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.934058</v>
       </c>
       <c r="I11">
-        <v>0.02300601015180532</v>
+        <v>0.02513060604095405</v>
       </c>
       <c r="J11">
-        <v>0.02819250049207849</v>
+        <v>0.03659032653806013</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>72.87451449999999</v>
+        <v>165.852196</v>
       </c>
       <c r="N11">
-        <v>145.749029</v>
+        <v>331.704392</v>
       </c>
       <c r="O11">
-        <v>0.4393273728421144</v>
+        <v>0.574838614477306</v>
       </c>
       <c r="P11">
-        <v>0.3722948591147555</v>
+        <v>0.5443553858331436</v>
       </c>
       <c r="Q11">
-        <v>46.98117925494699</v>
+        <v>106.922588830456</v>
       </c>
       <c r="R11">
-        <v>281.887075529682</v>
+        <v>641.535532982736</v>
       </c>
       <c r="S11">
-        <v>0.01010716999957165</v>
+        <v>0.01444604275755704</v>
       </c>
       <c r="T11">
-        <v>0.01049592299879104</v>
+        <v>0.01991814132038644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.934058</v>
       </c>
       <c r="I12">
-        <v>0.02300601015180532</v>
+        <v>0.02513060604095405</v>
       </c>
       <c r="J12">
-        <v>0.02819250049207849</v>
+        <v>0.03659032653806013</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.193335</v>
+        <v>5.448456</v>
       </c>
       <c r="N12">
-        <v>138.580005</v>
+        <v>16.345368</v>
       </c>
       <c r="O12">
-        <v>0.2784786512487256</v>
+        <v>0.01888418105769649</v>
       </c>
       <c r="P12">
-        <v>0.3539826219878084</v>
+        <v>0.02682415222353981</v>
       </c>
       <c r="Q12">
-        <v>29.78019636781</v>
+        <v>3.512543304816</v>
       </c>
       <c r="R12">
-        <v>268.02176731029</v>
+        <v>31.612889743344</v>
       </c>
       <c r="S12">
-        <v>0.006406682677689233</v>
+        <v>0.0004745709145670173</v>
       </c>
       <c r="T12">
-        <v>0.009979655244578525</v>
+        <v>0.0009815044889659532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.934058</v>
       </c>
       <c r="I13">
-        <v>0.02300601015180532</v>
+        <v>0.02513060604095405</v>
       </c>
       <c r="J13">
-        <v>0.02819250049207849</v>
+        <v>0.03659032653806013</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.704215666666666</v>
+        <v>15.69751633333333</v>
       </c>
       <c r="N13">
-        <v>14.112647</v>
+        <v>47.09254900000001</v>
       </c>
       <c r="O13">
-        <v>0.0283595811827931</v>
+        <v>0.05440710920576665</v>
       </c>
       <c r="P13">
-        <v>0.03604871993076041</v>
+        <v>0.07728291605123282</v>
       </c>
       <c r="Q13">
-        <v>3.032741981280666</v>
+        <v>10.11996901487133</v>
       </c>
       <c r="R13">
-        <v>27.294677831526</v>
+        <v>91.079721133842</v>
       </c>
       <c r="S13">
-        <v>0.0006524408125922851</v>
+        <v>0.001367283627277286</v>
       </c>
       <c r="T13">
-        <v>0.001016303554386763</v>
+        <v>0.002827807134128097</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.05663066666666667</v>
+        <v>0.1872913333333333</v>
       </c>
       <c r="H14">
-        <v>0.169892</v>
+        <v>0.561874</v>
       </c>
       <c r="I14">
-        <v>0.002020899619716942</v>
+        <v>0.007300832828516526</v>
       </c>
       <c r="J14">
-        <v>0.002476492583779907</v>
+        <v>0.01063006028425518</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.269746</v>
+        <v>90.353905</v>
       </c>
       <c r="N14">
-        <v>66.539492</v>
+        <v>180.70781</v>
       </c>
       <c r="O14">
-        <v>0.2005681987123831</v>
+        <v>0.3131638580342592</v>
       </c>
       <c r="P14">
-        <v>0.1699655288935572</v>
+        <v>0.2965570309229201</v>
       </c>
       <c r="Q14">
-        <v>1.884087895810667</v>
+        <v>16.92250333932333</v>
       </c>
       <c r="R14">
-        <v>11.304527374864</v>
+        <v>101.53502003594</v>
       </c>
       <c r="S14">
-        <v>0.0004053281965051671</v>
+        <v>0.002286356975441408</v>
       </c>
       <c r="T14">
-        <v>0.0004209183718031239</v>
+        <v>0.003152419116430367</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.05663066666666667</v>
+        <v>0.1872913333333333</v>
       </c>
       <c r="H15">
-        <v>0.169892</v>
+        <v>0.561874</v>
       </c>
       <c r="I15">
-        <v>0.002020899619716942</v>
+        <v>0.007300832828516526</v>
       </c>
       <c r="J15">
-        <v>0.002476492583779907</v>
+        <v>0.01063006028425518</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>1.078206</v>
       </c>
       <c r="O15">
-        <v>0.002166671538569243</v>
+        <v>0.001245676287098259</v>
       </c>
       <c r="P15">
-        <v>0.002754121613164806</v>
+        <v>0.001769428615638018</v>
       </c>
       <c r="Q15">
-        <v>0.02035317486133333</v>
+        <v>0.06731287978266667</v>
       </c>
       <c r="R15">
-        <v>0.183178573752</v>
+        <v>0.605815918044</v>
       </c>
       <c r="S15">
-        <v>4.378625688346105E-06</v>
+        <v>9.094474330551546E-06</v>
       </c>
       <c r="T15">
-        <v>6.820561749830597E-06</v>
+        <v>1.880913285291831E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.05663066666666667</v>
+        <v>0.1872913333333333</v>
       </c>
       <c r="H16">
-        <v>0.169892</v>
+        <v>0.561874</v>
       </c>
       <c r="I16">
-        <v>0.002020899619716942</v>
+        <v>0.007300832828516526</v>
       </c>
       <c r="J16">
-        <v>0.002476492583779907</v>
+        <v>0.01063006028425518</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.47626</v>
+        <v>10.80810533333333</v>
       </c>
       <c r="N16">
-        <v>25.42878</v>
+        <v>32.424316</v>
       </c>
       <c r="O16">
-        <v>0.05109952447541453</v>
+        <v>0.03746056093787335</v>
       </c>
       <c r="P16">
-        <v>0.06495414845995381</v>
+        <v>0.05321108635352579</v>
       </c>
       <c r="Q16">
-        <v>0.48001625464</v>
+        <v>2.024264458687111</v>
       </c>
       <c r="R16">
-        <v>4.32014629176</v>
+        <v>18.218380128184</v>
       </c>
       <c r="S16">
-        <v>0.0001032670095800818</v>
+        <v>0.0002734932930698695</v>
       </c>
       <c r="T16">
-        <v>0.0001608584669468147</v>
+        <v>0.0005656370557286871</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.05663066666666667</v>
+        <v>0.1872913333333333</v>
       </c>
       <c r="H17">
-        <v>0.169892</v>
+        <v>0.561874</v>
       </c>
       <c r="I17">
-        <v>0.002020899619716942</v>
+        <v>0.007300832828516526</v>
       </c>
       <c r="J17">
-        <v>0.002476492583779907</v>
+        <v>0.01063006028425518</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.87451449999999</v>
+        <v>165.852196</v>
       </c>
       <c r="N17">
-        <v>145.749029</v>
+        <v>331.704392</v>
       </c>
       <c r="O17">
-        <v>0.4393273728421144</v>
+        <v>0.574838614477306</v>
       </c>
       <c r="P17">
-        <v>0.3722948591147555</v>
+        <v>0.5443553858331436</v>
       </c>
       <c r="Q17">
-        <v>4.126932339144666</v>
+        <v>31.06267892510133</v>
       </c>
       <c r="R17">
-        <v>24.761594034868</v>
+        <v>186.376073550608</v>
       </c>
       <c r="S17">
-        <v>0.0008878365207078721</v>
+        <v>0.00419680062767487</v>
       </c>
       <c r="T17">
-        <v>0.0009219854575770774</v>
+        <v>0.005786530567465303</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.05663066666666667</v>
+        <v>0.1872913333333333</v>
       </c>
       <c r="H18">
-        <v>0.169892</v>
+        <v>0.561874</v>
       </c>
       <c r="I18">
-        <v>0.002020899619716942</v>
+        <v>0.007300832828516526</v>
       </c>
       <c r="J18">
-        <v>0.002476492583779907</v>
+        <v>0.01063006028425518</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.193335</v>
+        <v>5.448456</v>
       </c>
       <c r="N18">
-        <v>138.580005</v>
+        <v>16.345368</v>
       </c>
       <c r="O18">
-        <v>0.2784786512487256</v>
+        <v>0.01888418105769649</v>
       </c>
       <c r="P18">
-        <v>0.3539826219878084</v>
+        <v>0.02682415222353981</v>
       </c>
       <c r="Q18">
-        <v>2.615959356606667</v>
+        <v>1.020448588848</v>
       </c>
       <c r="R18">
-        <v>23.54363420946</v>
+        <v>9.184037299631999</v>
       </c>
       <c r="S18">
-        <v>0.0005627774004078363</v>
+        <v>0.0001378702490056804</v>
       </c>
       <c r="T18">
-        <v>0.0008766353381397737</v>
+        <v>0.0002851423552102657</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.05663066666666667</v>
+        <v>0.1872913333333333</v>
       </c>
       <c r="H19">
-        <v>0.169892</v>
+        <v>0.561874</v>
       </c>
       <c r="I19">
-        <v>0.002020899619716942</v>
+        <v>0.007300832828516526</v>
       </c>
       <c r="J19">
-        <v>0.002476492583779907</v>
+        <v>0.01063006028425518</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.704215666666666</v>
+        <v>15.69751633333333</v>
       </c>
       <c r="N19">
-        <v>14.112647</v>
+        <v>47.09254900000001</v>
       </c>
       <c r="O19">
-        <v>0.0283595811827931</v>
+        <v>0.05440710920576665</v>
       </c>
       <c r="P19">
-        <v>0.03604871993076041</v>
+        <v>0.07728291605123282</v>
       </c>
       <c r="Q19">
-        <v>0.2664028693471111</v>
+        <v>2.940008764091778</v>
       </c>
       <c r="R19">
-        <v>2.397625824124</v>
+        <v>26.460078876826</v>
       </c>
       <c r="S19">
-        <v>5.731186682763831E-05</v>
+        <v>0.0003972172089941448</v>
       </c>
       <c r="T19">
-        <v>8.927438756328709E-05</v>
+        <v>0.0008215220565676368</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.140579</v>
+        <v>0.370585</v>
       </c>
       <c r="H20">
-        <v>0.281158</v>
+        <v>0.74117</v>
       </c>
       <c r="I20">
-        <v>0.005016646710384032</v>
+        <v>0.01444583198593882</v>
       </c>
       <c r="J20">
-        <v>0.004098401936938709</v>
+        <v>0.01402215048370526</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.269746</v>
+        <v>90.353905</v>
       </c>
       <c r="N20">
-        <v>66.539492</v>
+        <v>180.70781</v>
       </c>
       <c r="O20">
-        <v>0.2005681987123831</v>
+        <v>0.3131638580342592</v>
       </c>
       <c r="P20">
-        <v>0.1699655288935572</v>
+        <v>0.2965570309229201</v>
       </c>
       <c r="Q20">
-        <v>4.677027622934</v>
+        <v>33.483801884425</v>
       </c>
       <c r="R20">
-        <v>18.708110491736</v>
+        <v>133.9352075377</v>
       </c>
       <c r="S20">
-        <v>0.001006179794278128</v>
+        <v>0.004523912477231305</v>
       </c>
       <c r="T20">
-        <v>0.0006965870528301668</v>
+        <v>0.004158367314602019</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.140579</v>
+        <v>0.370585</v>
       </c>
       <c r="H21">
-        <v>0.281158</v>
+        <v>0.74117</v>
       </c>
       <c r="I21">
-        <v>0.005016646710384032</v>
+        <v>0.01444583198593882</v>
       </c>
       <c r="J21">
-        <v>0.004098401936938709</v>
+        <v>0.01402215048370526</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>1.078206</v>
       </c>
       <c r="O21">
-        <v>0.002166671538569243</v>
+        <v>0.001245676287098259</v>
       </c>
       <c r="P21">
-        <v>0.002754121613164806</v>
+        <v>0.001769428615638018</v>
       </c>
       <c r="Q21">
-        <v>0.050524373758</v>
+        <v>0.13318899017</v>
       </c>
       <c r="R21">
-        <v>0.303146242548</v>
+        <v>0.79913394102</v>
       </c>
       <c r="S21">
-        <v>1.08694256464461E-05</v>
+        <v>1.799483035228954E-05</v>
       </c>
       <c r="T21">
-        <v>1.12874973539594E-05</v>
+        <v>2.481119431865056E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.140579</v>
+        <v>0.370585</v>
       </c>
       <c r="H22">
-        <v>0.281158</v>
+        <v>0.74117</v>
       </c>
       <c r="I22">
-        <v>0.005016646710384032</v>
+        <v>0.01444583198593882</v>
       </c>
       <c r="J22">
-        <v>0.004098401936938709</v>
+        <v>0.01402215048370526</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.47626</v>
+        <v>10.80810533333333</v>
       </c>
       <c r="N22">
-        <v>25.42878</v>
+        <v>32.424316</v>
       </c>
       <c r="O22">
-        <v>0.05109952447541453</v>
+        <v>0.03746056093787335</v>
       </c>
       <c r="P22">
-        <v>0.06495414845995381</v>
+        <v>0.05321108635352579</v>
       </c>
       <c r="Q22">
-        <v>1.19158415454</v>
+        <v>4.005321714953332</v>
       </c>
       <c r="R22">
-        <v>7.149504927240001</v>
+        <v>24.03193028972</v>
       </c>
       <c r="S22">
-        <v>0.0002563482613617767</v>
+        <v>0.0005411489694075411</v>
       </c>
       <c r="T22">
-        <v>0.0002662082078604791</v>
+        <v>0.0007461338602505741</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.140579</v>
+        <v>0.370585</v>
       </c>
       <c r="H23">
-        <v>0.281158</v>
+        <v>0.74117</v>
       </c>
       <c r="I23">
-        <v>0.005016646710384032</v>
+        <v>0.01444583198593882</v>
       </c>
       <c r="J23">
-        <v>0.004098401936938709</v>
+        <v>0.01402215048370526</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>72.87451449999999</v>
+        <v>165.852196</v>
       </c>
       <c r="N23">
-        <v>145.749029</v>
+        <v>331.704392</v>
       </c>
       <c r="O23">
-        <v>0.4393273728421144</v>
+        <v>0.574838614477306</v>
       </c>
       <c r="P23">
-        <v>0.3722948591147555</v>
+        <v>0.5443553858331436</v>
       </c>
       <c r="Q23">
-        <v>10.2446263738955</v>
+        <v>61.46233605466</v>
       </c>
       <c r="R23">
-        <v>40.978505495582</v>
+        <v>245.84934421864</v>
       </c>
       <c r="S23">
-        <v>0.002203950219750052</v>
+        <v>0.008304022043769021</v>
       </c>
       <c r="T23">
-        <v>0.001525813971708238</v>
+        <v>0.007633033136767778</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.140579</v>
+        <v>0.370585</v>
       </c>
       <c r="H24">
-        <v>0.281158</v>
+        <v>0.74117</v>
       </c>
       <c r="I24">
-        <v>0.005016646710384032</v>
+        <v>0.01444583198593882</v>
       </c>
       <c r="J24">
-        <v>0.004098401936938709</v>
+        <v>0.01402215048370526</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>46.193335</v>
+        <v>5.448456</v>
       </c>
       <c r="N24">
-        <v>138.580005</v>
+        <v>16.345368</v>
       </c>
       <c r="O24">
-        <v>0.2784786512487256</v>
+        <v>0.01888418105769649</v>
       </c>
       <c r="P24">
-        <v>0.3539826219878084</v>
+        <v>0.02682415222353981</v>
       </c>
       <c r="Q24">
-        <v>6.493812840965</v>
+        <v>2.01911606676</v>
       </c>
       <c r="R24">
-        <v>38.96287704579</v>
+        <v>12.11469640056</v>
       </c>
       <c r="S24">
-        <v>0.001397029009699101</v>
+        <v>0.0002727977067515319</v>
       </c>
       <c r="T24">
-        <v>0.001450763063597477</v>
+        <v>0.0003761322990762922</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.140579</v>
+        <v>0.370585</v>
       </c>
       <c r="H25">
-        <v>0.281158</v>
+        <v>0.74117</v>
       </c>
       <c r="I25">
-        <v>0.005016646710384032</v>
+        <v>0.01444583198593882</v>
       </c>
       <c r="J25">
-        <v>0.004098401936938709</v>
+        <v>0.01402215048370526</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.704215666666666</v>
+        <v>15.69751633333333</v>
       </c>
       <c r="N25">
-        <v>14.112647</v>
+        <v>47.09254900000001</v>
       </c>
       <c r="O25">
-        <v>0.0283595811827931</v>
+        <v>0.05440710920576665</v>
       </c>
       <c r="P25">
-        <v>0.03604871993076041</v>
+        <v>0.07728291605123282</v>
       </c>
       <c r="Q25">
-        <v>0.6613139342043334</v>
+        <v>5.817264090388334</v>
       </c>
       <c r="R25">
-        <v>3.967883605226</v>
+        <v>34.90358454233</v>
       </c>
       <c r="S25">
-        <v>0.0001422699996485279</v>
+        <v>0.0007859559584271304</v>
       </c>
       <c r="T25">
-        <v>0.0001477421435883895</v>
+        <v>0.001083672678689947</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>11.575966</v>
+        <v>0.5582600000000001</v>
       </c>
       <c r="H26">
-        <v>34.727898</v>
+        <v>1.67478</v>
       </c>
       <c r="I26">
-        <v>0.4130953538822825</v>
+        <v>0.02176162058494059</v>
       </c>
       <c r="J26">
-        <v>0.5062238471927168</v>
+        <v>0.03168506170932431</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>33.269746</v>
+        <v>90.353905</v>
       </c>
       <c r="N26">
-        <v>66.539492</v>
+        <v>180.70781</v>
       </c>
       <c r="O26">
-        <v>0.2005681987123831</v>
+        <v>0.3131638580342592</v>
       </c>
       <c r="P26">
-        <v>0.1699655288935572</v>
+        <v>0.2965570309229201</v>
       </c>
       <c r="Q26">
-        <v>385.129448524636</v>
+        <v>50.44097100530001</v>
       </c>
       <c r="R26">
-        <v>2310.776691147816</v>
+        <v>302.6458260318</v>
       </c>
       <c r="S26">
-        <v>0.08285379102462387</v>
+        <v>0.006814953059457746</v>
       </c>
       <c r="T26">
-        <v>0.08604060392664138</v>
+        <v>0.009396427825126719</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>11.575966</v>
+        <v>0.5582600000000001</v>
       </c>
       <c r="H27">
-        <v>34.727898</v>
+        <v>1.67478</v>
       </c>
       <c r="I27">
-        <v>0.4130953538822825</v>
+        <v>0.02176162058494059</v>
       </c>
       <c r="J27">
-        <v>0.5062238471927168</v>
+        <v>0.03168506170932431</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>1.078206</v>
       </c>
       <c r="O27">
-        <v>0.002166671538569243</v>
+        <v>0.001245676287098259</v>
       </c>
       <c r="P27">
-        <v>0.002754121613164806</v>
+        <v>0.001769428615638018</v>
       </c>
       <c r="Q27">
-        <v>4.160425332332</v>
+        <v>0.20063976052</v>
       </c>
       <c r="R27">
-        <v>37.443827990988</v>
+        <v>1.80575784468</v>
       </c>
       <c r="S27">
-        <v>0.0008950419459719311</v>
+        <v>2.710793473148983E-05</v>
       </c>
       <c r="T27">
-        <v>0.0013942020386529</v>
+        <v>5.606445487673488E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>11.575966</v>
+        <v>0.5582600000000001</v>
       </c>
       <c r="H28">
-        <v>34.727898</v>
+        <v>1.67478</v>
       </c>
       <c r="I28">
-        <v>0.4130953538822825</v>
+        <v>0.02176162058494059</v>
       </c>
       <c r="J28">
-        <v>0.5062238471927168</v>
+        <v>0.03168506170932431</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.47626</v>
+        <v>10.80810533333333</v>
       </c>
       <c r="N28">
-        <v>25.42878</v>
+        <v>32.424316</v>
       </c>
       <c r="O28">
-        <v>0.05109952447541453</v>
+        <v>0.03746056093787335</v>
       </c>
       <c r="P28">
-        <v>0.06495414845995381</v>
+        <v>0.05321108635352579</v>
       </c>
       <c r="Q28">
-        <v>98.12089756716</v>
+        <v>6.033732883386667</v>
       </c>
       <c r="R28">
-        <v>883.0880781044399</v>
+        <v>54.30359595048</v>
       </c>
       <c r="S28">
-        <v>0.02110897614638772</v>
+        <v>0.0008152025140290459</v>
       </c>
       <c r="T28">
-        <v>0.0328813389245247</v>
+        <v>0.001685996554731649</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>11.575966</v>
+        <v>0.5582600000000001</v>
       </c>
       <c r="H29">
-        <v>34.727898</v>
+        <v>1.67478</v>
       </c>
       <c r="I29">
-        <v>0.4130953538822825</v>
+        <v>0.02176162058494059</v>
       </c>
       <c r="J29">
-        <v>0.5062238471927168</v>
+        <v>0.03168506170932431</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>72.87451449999999</v>
+        <v>165.852196</v>
       </c>
       <c r="N29">
-        <v>145.749029</v>
+        <v>331.704392</v>
       </c>
       <c r="O29">
-        <v>0.4393273728421144</v>
+        <v>0.574838614477306</v>
       </c>
       <c r="P29">
-        <v>0.3722948591147555</v>
+        <v>0.5443553858331436</v>
       </c>
       <c r="Q29">
-        <v>843.5929021185068</v>
+        <v>92.58864693896001</v>
       </c>
       <c r="R29">
-        <v>5061.55741271104</v>
+        <v>555.53188163376</v>
       </c>
       <c r="S29">
-        <v>0.1814840965543867</v>
+        <v>0.01250941982582807</v>
       </c>
       <c r="T29">
-        <v>0.188464535871142</v>
+        <v>0.0172479339919262</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>11.575966</v>
+        <v>0.5582600000000001</v>
       </c>
       <c r="H30">
-        <v>34.727898</v>
+        <v>1.67478</v>
       </c>
       <c r="I30">
-        <v>0.4130953538822825</v>
+        <v>0.02176162058494059</v>
       </c>
       <c r="J30">
-        <v>0.5062238471927168</v>
+        <v>0.03168506170932431</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>46.193335</v>
+        <v>5.448456</v>
       </c>
       <c r="N30">
-        <v>138.580005</v>
+        <v>16.345368</v>
       </c>
       <c r="O30">
-        <v>0.2784786512487256</v>
+        <v>0.01888418105769649</v>
       </c>
       <c r="P30">
-        <v>0.3539826219878084</v>
+        <v>0.02682415222353981</v>
       </c>
       <c r="Q30">
-        <v>534.73247538661</v>
+        <v>3.041655046560001</v>
       </c>
       <c r="R30">
-        <v>4812.592278479489</v>
+        <v>27.37489541904</v>
       </c>
       <c r="S30">
-        <v>0.115038236986253</v>
+        <v>0.000410950383234913</v>
       </c>
       <c r="T30">
-        <v>0.1791944447420336</v>
+        <v>0.0008499249185031676</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>11.575966</v>
+        <v>0.5582600000000001</v>
       </c>
       <c r="H31">
-        <v>34.727898</v>
+        <v>1.67478</v>
       </c>
       <c r="I31">
-        <v>0.4130953538822825</v>
+        <v>0.02176162058494059</v>
       </c>
       <c r="J31">
-        <v>0.5062238471927168</v>
+        <v>0.03168506170932431</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.704215666666666</v>
+        <v>15.69751633333333</v>
       </c>
       <c r="N31">
-        <v>14.112647</v>
+        <v>47.09254900000001</v>
       </c>
       <c r="O31">
-        <v>0.0283595811827931</v>
+        <v>0.05440710920576665</v>
       </c>
       <c r="P31">
-        <v>0.03604871993076041</v>
+        <v>0.07728291605123282</v>
       </c>
       <c r="Q31">
-        <v>54.45584061400066</v>
+        <v>8.763295468246669</v>
       </c>
       <c r="R31">
-        <v>490.1025655260059</v>
+        <v>78.86965921422002</v>
       </c>
       <c r="S31">
-        <v>0.01171521122465924</v>
+        <v>0.001183986867659322</v>
       </c>
       <c r="T31">
-        <v>0.01824872168972231</v>
+        <v>0.002448713964159842</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.2795713333333333</v>
+        <v>0.160007</v>
       </c>
       <c r="H32">
-        <v>0.838714</v>
+        <v>0.480021</v>
       </c>
       <c r="I32">
-        <v>0.009976672260325826</v>
+        <v>0.006237257953166246</v>
       </c>
       <c r="J32">
-        <v>0.01222581993803346</v>
+        <v>0.009081488318926405</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>33.269746</v>
+        <v>90.353905</v>
       </c>
       <c r="N32">
-        <v>66.539492</v>
+        <v>180.70781</v>
       </c>
       <c r="O32">
-        <v>0.2005681987123831</v>
+        <v>0.3131638580342592</v>
       </c>
       <c r="P32">
-        <v>0.1699655288935572</v>
+        <v>0.2965570309229201</v>
       </c>
       <c r="Q32">
-        <v>9.301267248881333</v>
+        <v>14.457257277335</v>
       </c>
       <c r="R32">
-        <v>55.80760349328799</v>
+        <v>86.74354366401001</v>
       </c>
       <c r="S32">
-        <v>0.002001003184397351</v>
+        <v>0.001953283764168408</v>
       </c>
       <c r="T32">
-        <v>0.002077967951925254</v>
+        <v>0.002693179212221995</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.2795713333333333</v>
+        <v>0.160007</v>
       </c>
       <c r="H33">
-        <v>0.838714</v>
+        <v>0.480021</v>
       </c>
       <c r="I33">
-        <v>0.009976672260325826</v>
+        <v>0.006237257953166246</v>
       </c>
       <c r="J33">
-        <v>0.01222581993803346</v>
+        <v>0.009081488318926405</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>1.078206</v>
       </c>
       <c r="O33">
-        <v>0.002166671538569243</v>
+        <v>0.001245676287098259</v>
       </c>
       <c r="P33">
-        <v>0.002754121613164806</v>
+        <v>0.001769428615638018</v>
       </c>
       <c r="Q33">
-        <v>0.1004784963426667</v>
+        <v>0.05750683581400001</v>
       </c>
       <c r="R33">
-        <v>0.904306467084</v>
+        <v>0.5175615223260001</v>
       </c>
       <c r="S33">
-        <v>2.161617183608125E-05</v>
+        <v>7.769604328774216E-06</v>
       </c>
       <c r="T33">
-        <v>3.367139492999917E-05</v>
+        <v>1.606904530409078E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.2795713333333333</v>
+        <v>0.160007</v>
       </c>
       <c r="H34">
-        <v>0.838714</v>
+        <v>0.480021</v>
       </c>
       <c r="I34">
-        <v>0.009976672260325826</v>
+        <v>0.006237257953166246</v>
       </c>
       <c r="J34">
-        <v>0.01222581993803346</v>
+        <v>0.009081488318926405</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.47626</v>
+        <v>10.80810533333333</v>
       </c>
       <c r="N34">
-        <v>25.42878</v>
+        <v>32.424316</v>
       </c>
       <c r="O34">
-        <v>0.05109952447541453</v>
+        <v>0.03746056093787335</v>
       </c>
       <c r="P34">
-        <v>0.06495414845995381</v>
+        <v>0.05321108635352579</v>
       </c>
       <c r="Q34">
-        <v>2.36971930988</v>
+        <v>1.729372510070667</v>
       </c>
       <c r="R34">
-        <v>21.32747378892</v>
+        <v>15.564352590636</v>
       </c>
       <c r="S34">
-        <v>0.0005098032083497088</v>
+        <v>0.0002336511816398193</v>
       </c>
       <c r="T34">
-        <v>0.0007941177232996888</v>
+        <v>0.0004832358591569287</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.2795713333333333</v>
+        <v>0.160007</v>
       </c>
       <c r="H35">
-        <v>0.838714</v>
+        <v>0.480021</v>
       </c>
       <c r="I35">
-        <v>0.009976672260325826</v>
+        <v>0.006237257953166246</v>
       </c>
       <c r="J35">
-        <v>0.01222581993803346</v>
+        <v>0.009081488318926405</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>72.87451449999999</v>
+        <v>165.852196</v>
       </c>
       <c r="N35">
-        <v>145.749029</v>
+        <v>331.704392</v>
       </c>
       <c r="O35">
-        <v>0.4393273728421144</v>
+        <v>0.574838614477306</v>
       </c>
       <c r="P35">
-        <v>0.3722948591147555</v>
+        <v>0.5443553858331436</v>
       </c>
       <c r="Q35">
-        <v>20.37362518478433</v>
+        <v>26.537512325372</v>
       </c>
       <c r="R35">
-        <v>122.241751108706</v>
+        <v>159.225073952232</v>
       </c>
       <c r="S35">
-        <v>0.004383025213835745</v>
+        <v>0.003585416719935642</v>
       </c>
       <c r="T35">
-        <v>0.004551609911392537</v>
+        <v>0.00494355707778837</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.2795713333333333</v>
+        <v>0.160007</v>
       </c>
       <c r="H36">
-        <v>0.838714</v>
+        <v>0.480021</v>
       </c>
       <c r="I36">
-        <v>0.009976672260325826</v>
+        <v>0.006237257953166246</v>
       </c>
       <c r="J36">
-        <v>0.01222581993803346</v>
+        <v>0.009081488318926405</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>46.193335</v>
+        <v>5.448456</v>
       </c>
       <c r="N36">
-        <v>138.580005</v>
+        <v>16.345368</v>
       </c>
       <c r="O36">
-        <v>0.2784786512487256</v>
+        <v>0.01888418105769649</v>
       </c>
       <c r="P36">
-        <v>0.3539826219878084</v>
+        <v>0.02682415222353981</v>
       </c>
       <c r="Q36">
-        <v>12.91433225706333</v>
+        <v>0.871791099192</v>
       </c>
       <c r="R36">
-        <v>116.22899031357</v>
+        <v>7.846119892728001</v>
       </c>
       <c r="S36">
-        <v>0.00277829023500611</v>
+        <v>0.0001177855084911488</v>
       </c>
       <c r="T36">
-        <v>0.00432772779761591</v>
+        <v>0.0002436032250831805</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.2795713333333333</v>
+        <v>0.160007</v>
       </c>
       <c r="H37">
-        <v>0.838714</v>
+        <v>0.480021</v>
       </c>
       <c r="I37">
-        <v>0.009976672260325826</v>
+        <v>0.006237257953166246</v>
       </c>
       <c r="J37">
-        <v>0.01222581993803346</v>
+        <v>0.009081488318926405</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.704215666666666</v>
+        <v>15.69751633333333</v>
       </c>
       <c r="N37">
-        <v>14.112647</v>
+        <v>47.09254900000001</v>
       </c>
       <c r="O37">
-        <v>0.0283595811827931</v>
+        <v>0.05440710920576665</v>
       </c>
       <c r="P37">
-        <v>0.03604871993076041</v>
+        <v>0.07728291605123282</v>
       </c>
       <c r="Q37">
-        <v>1.315163846217555</v>
+        <v>2.511712495947667</v>
       </c>
       <c r="R37">
-        <v>11.836474615958</v>
+        <v>22.605412463529</v>
       </c>
       <c r="S37">
-        <v>0.0002829342469008302</v>
+        <v>0.0003393511746024525</v>
       </c>
       <c r="T37">
-        <v>0.0004407251588700749</v>
+        <v>0.0007018438993718407</v>
       </c>
     </row>
   </sheetData>
